--- a/PythonResources/Data/Consumption/Sympheny/futu_CC_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CC_hea.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>97.71779720773638</v>
+        <v>97.71779720773635</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>102.4998373455736</v>
+        <v>102.4998373455735</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>64.86072385029698</v>
+        <v>64.86072385029696</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -487,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>71.72180993639773</v>
+        <v>71.72180993639772</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>213.0699718827646</v>
+        <v>213.0699718827645</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>63.01613473296247</v>
+        <v>63.01613473296246</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>73.3717998840611</v>
+        <v>73.37179988406109</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>254.7607924875343</v>
+        <v>254.7607924875342</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>134.6682230692627</v>
+        <v>134.6682230692626</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>26.58769769839591</v>
+        <v>26.5876976983959</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -959,7 +959,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>54.18423383317577</v>
+        <v>54.18423383317575</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>84.01203701369991</v>
+        <v>84.0120370136999</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>28.90439495190998</v>
+        <v>28.90439495190997</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>84.69547867585817</v>
+        <v>84.69547867585815</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>181.7726812072886</v>
+        <v>181.7726812072885</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>133.6764999815366</v>
+        <v>133.6764999815365</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>31.34975039139638</v>
+        <v>31.34975039139637</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>71.82520539883745</v>
+        <v>71.82520539883744</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>96.04169463052828</v>
+        <v>96.04169463052827</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>112.3505704041626</v>
+        <v>112.3505704041625</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>116.6163659073978</v>
+        <v>116.6163659073977</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>83.96373890652852</v>
+        <v>83.9637389065285</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>88.13639643367715</v>
+        <v>88.13639643367713</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>146.9197354623577</v>
+        <v>146.9197354623576</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>257.0397128841649</v>
+        <v>257.0397128841648</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>222.107081123822</v>
+        <v>222.1070811238219</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>11.15911940358872</v>
+        <v>11.15911940358871</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>26.9535968901646</v>
+        <v>26.95359689016459</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>92.94621970597942</v>
+        <v>92.9462197059794</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>122.6880944579681</v>
+        <v>122.688094457968</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>261.5406978959258</v>
+        <v>261.5406978959257</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>68.67941017695044</v>
+        <v>68.67941017695043</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>32.19792728438618</v>
+        <v>32.19792728438617</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>96.87545242841594</v>
+        <v>96.87545242841593</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>205.5160072470607</v>
+        <v>205.5160072470606</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>170.1823370774136</v>
+        <v>170.1823370774135</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>6.983296709222536</v>
+        <v>6.983296709222535</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>32.5636213264278</v>
+        <v>32.56362132642779</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>30.53281487112788</v>
+        <v>30.53281487112787</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>41.40416782185502</v>
+        <v>41.40416782185501</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>44.74476736314023</v>
+        <v>44.74476736314022</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>28.90052641419965</v>
+        <v>28.90052641419964</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>52.49810822644545</v>
+        <v>52.49810822644544</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>24.68534427934125</v>
+        <v>24.68534427934124</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>22.52948441184453</v>
+        <v>22.52948441184452</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>26.83630986049233</v>
+        <v>26.83630986049232</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>40.96752128135348</v>
+        <v>40.96752128135347</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>251.5370110622595</v>
+        <v>251.5370110622594</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>81.68939041810103</v>
+        <v>81.68939041810101</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>252.0305426913652</v>
+        <v>252.0305426913651</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>52.61949825065898</v>
+        <v>52.61949825065897</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>78.19970563944878</v>
+        <v>78.19970563944877</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>212.8668736529723</v>
+        <v>212.8668736529722</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>66.14182528159732</v>
+        <v>66.14182528159731</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>95.49206920462279</v>
+        <v>95.49206920462278</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>220.9641333801466</v>
+        <v>220.9641333801465</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>152.8200174553111</v>
+        <v>152.820017455311</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>221.3256071992315</v>
+        <v>221.3256071992314</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>44.37546854732306</v>
+        <v>44.37546854732305</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>81.00826401714818</v>
+        <v>81.00826401714816</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>128.5954687700571</v>
+        <v>128.595468770057</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>87.59483046133485</v>
+        <v>87.59483046133484</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>6.299180983675358</v>
+        <v>6.299180983675357</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>18.13388774558621</v>
+        <v>18.1338877455862</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>211.4959752554261</v>
+        <v>211.495975255426</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>89.27146056641254</v>
+        <v>89.27146056641253</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>95.37176354325231</v>
+        <v>95.3717635432523</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>66.17353556798048</v>
+        <v>66.17353556798047</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>71.99638819251955</v>
+        <v>71.99638819251953</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>60.26472520780203</v>
+        <v>60.26472520780202</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>85.9291612131031</v>
+        <v>85.92916121310309</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>67.03044597792238</v>
+        <v>67.03044597792237</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>95.45821949965742</v>
+        <v>95.45821949965739</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>194.5697453388517</v>
+        <v>194.5697453388516</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>86.89426758909801</v>
+        <v>86.89426758909799</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>18.38809756452106</v>
+        <v>18.38809756452105</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>21.84399125241564</v>
+        <v>21.84399125241563</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>25.98640384837443</v>
+        <v>25.98640384837442</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>83.93619902102552</v>
+        <v>83.9361990210255</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>2.891910711805078</v>
+        <v>2.891910711805077</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>6.383878513848487</v>
+        <v>6.383878513848486</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>60.07123970807781</v>
+        <v>60.0712397080778</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>143.0505529957429</v>
+        <v>143.0505529957428</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>48.75567898405167</v>
+        <v>48.75567898405166</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>87.49990475191245</v>
+        <v>87.49990475191244</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>70.89558406420367</v>
+        <v>70.89558406420366</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>47.68620414976868</v>
+        <v>47.68620414976867</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>57.7491206403485</v>
+        <v>57.74912064034849</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>65.75136673678881</v>
+        <v>65.7513667367888</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>7.12813534723936</v>
+        <v>7.128135347239359</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>867</v>
       </c>
       <c r="B867">
-        <v>23.42209087429539</v>
+        <v>23.42209087429538</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>97.9203239490033</v>
+        <v>97.92032394900329</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>31.82487715927415</v>
+        <v>31.82487715927414</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>38.75764842143147</v>
+        <v>38.75764842143146</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>949</v>
       </c>
       <c r="B949">
-        <v>144.0359164419301</v>
+        <v>144.03591644193</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>954</v>
       </c>
       <c r="B954">
-        <v>111.2286651610631</v>
+        <v>111.228665161063</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>141.4996796733548</v>
+        <v>141.4996796733547</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>97.52595290582866</v>
+        <v>97.52595290582865</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>3.835567218480357</v>
+        <v>3.835567218480356</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>1038</v>
       </c>
       <c r="B1038">
-        <v>67.14275079993742</v>
+        <v>67.1427507999374</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>51.8952317928152</v>
+        <v>51.89523179281519</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>62.02930593158199</v>
+        <v>62.02930593158198</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>179.2063460430428</v>
+        <v>179.2063460430427</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>1103</v>
       </c>
       <c r="B1103">
-        <v>6.652976341547334</v>
+        <v>6.652976341547333</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>38.1924316162692</v>
+        <v>38.19243161626919</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>46.06862785898125</v>
+        <v>46.06862785898124</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>37.70320813143182</v>
+        <v>37.70320813143181</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>24.92973621848095</v>
+        <v>24.92973621848094</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>54.18200649328194</v>
+        <v>54.18200649328193</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>58.30264391106819</v>
+        <v>58.30264391106818</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>28.65979786304322</v>
+        <v>28.65979786304321</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>63.8074265373481</v>
+        <v>63.80742653734809</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>99.74945356904843</v>
+        <v>99.74945356904841</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>31.37255131820423</v>
+        <v>31.37255131820422</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>155.6333821980446</v>
+        <v>155.6333821980445</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>1251</v>
       </c>
       <c r="B1251">
-        <v>52.69853950978594</v>
+        <v>52.69853950978593</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>117.0446599232975</v>
+        <v>117.0446599232974</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10711,7 +10711,7 @@
         <v>1296</v>
       </c>
       <c r="B1296">
-        <v>20.18755374190172</v>
+        <v>20.18755374190171</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>38.27217624588895</v>
+        <v>38.27217624588894</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>1311</v>
       </c>
       <c r="B1311">
-        <v>11.37716425635276</v>
+        <v>11.37716425635275</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>52.01536161156248</v>
+        <v>52.01536161156247</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>75.04110321317226</v>
+        <v>75.04110321317225</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>17.07134111065718</v>
+        <v>17.07134111065717</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>101.7117107084055</v>
+        <v>101.7117107084054</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>101.8808537276585</v>
+        <v>101.8808537276584</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>65.45970243911304</v>
+        <v>65.45970243911303</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>79.70887495303538</v>
+        <v>79.70887495303536</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>39.30448967246967</v>
+        <v>39.30448967246966</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>79.95619760256169</v>
+        <v>79.95619760256167</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>99.03078476804308</v>
+        <v>99.03078476804306</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>127.6854245808059</v>
+        <v>127.6854245808058</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>91.9688570991477</v>
+        <v>91.96885709914768</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>1470</v>
       </c>
       <c r="B1470">
-        <v>96.63607200403736</v>
+        <v>96.63607200403735</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>97.3954190652089</v>
+        <v>97.39541906520888</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>35.80856248069395</v>
+        <v>35.80856248069394</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12231,7 +12231,7 @@
         <v>1486</v>
       </c>
       <c r="B1486">
-        <v>79.66520736827484</v>
+        <v>79.66520736827482</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>85.13344403603368</v>
+        <v>85.13344403603367</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>109.894312722038</v>
+        <v>109.8943127220379</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>44.95035669676116</v>
+        <v>44.95035669676115</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>10.32723726034849</v>
+        <v>10.32723726034848</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>27.66625773487739</v>
+        <v>27.66625773487738</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>237.9168276115121</v>
+        <v>237.916827611512</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>24.98673853550058</v>
+        <v>24.98673853550057</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>22.40592566194491</v>
+        <v>22.4059256619449</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>19.91954027704592</v>
+        <v>19.91954027704591</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>23.05882932187465</v>
+        <v>23.05882932187464</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13527,7 +13527,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>9.420583903014588</v>
+        <v>9.420583903014586</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>30.96632555151574</v>
+        <v>30.96632555151573</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>42.94282008193095</v>
+        <v>42.94282008193094</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>52.24457247089952</v>
+        <v>52.24457247089951</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>146.2724294592664</v>
+        <v>146.2724294592663</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>87.79803419670108</v>
+        <v>87.79803419670107</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>18.53592259642184</v>
+        <v>18.53592259642183</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>45.26649242616515</v>
+        <v>45.26649242616514</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>163.0755402324992</v>
+        <v>163.0755402324991</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>8.928643649648814</v>
+        <v>8.928643649648812</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>6.626599948067813</v>
+        <v>6.626599948067812</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>17.41794450524041</v>
+        <v>17.4179445052404</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>89.54981064680193</v>
+        <v>89.54981064680192</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>77.8921275843737</v>
+        <v>77.89212758437368</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>7.406675923803876</v>
+        <v>7.406675923803875</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>202.7682318027797</v>
+        <v>202.7682318027796</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14767,7 +14767,7 @@
         <v>1803</v>
       </c>
       <c r="B1803">
-        <v>16.25890716154252</v>
+        <v>16.25890716154251</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
@@ -14855,7 +14855,7 @@
         <v>1814</v>
       </c>
       <c r="B1814">
-        <v>21.1745583859054</v>
+        <v>21.17455838590539</v>
       </c>
     </row>
     <row r="1815" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>42.74400068930309</v>
+        <v>42.74400068930308</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>56.4608975828087</v>
+        <v>56.46089758280868</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>63.98546719333487</v>
+        <v>63.98546719333486</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>71.56495831650618</v>
+        <v>71.56495831650616</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>79.21513817420261</v>
+        <v>79.21513817420259</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>57.89720943618408</v>
+        <v>57.89720943618407</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>18.22790493478877</v>
+        <v>18.22790493478876</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>36.60515887087935</v>
+        <v>36.60515887087934</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15151,7 +15151,7 @@
         <v>1851</v>
       </c>
       <c r="B1851">
-        <v>58.50445262829039</v>
+        <v>58.50445262829038</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>62.12191637979898</v>
+        <v>62.12191637979896</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>156.8705229735457</v>
+        <v>156.8705229735456</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>94.59688371703172</v>
+        <v>94.5968837170317</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>10.63466877990424</v>
+        <v>10.63466877990423</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>131.3687413947017</v>
+        <v>131.3687413947016</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>76.25679118864339</v>
+        <v>76.25679118864338</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>0.9484130496327527</v>
+        <v>0.9484130496327526</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>203.5985313624111</v>
+        <v>203.598531362411</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>91.53616701766809</v>
+        <v>91.53616701766808</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>92.69092552420152</v>
+        <v>92.6909255242015</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>123.1410650553231</v>
+        <v>123.141065055323</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15799,7 +15799,7 @@
         <v>1932</v>
       </c>
       <c r="B1932">
-        <v>112.6141878034385</v>
+        <v>112.6141878034384</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>13.84655152100939</v>
+        <v>13.84655152100938</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -16127,7 +16127,7 @@
         <v>1973</v>
       </c>
       <c r="B1973">
-        <v>27.85429211328251</v>
+        <v>27.8542921132825</v>
       </c>
     </row>
     <row r="1974" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>36.25743008350767</v>
+        <v>36.25743008350766</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>43.13009247563555</v>
+        <v>43.13009247563554</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16207,7 +16207,7 @@
         <v>1983</v>
       </c>
       <c r="B1983">
-        <v>6.516141473596352</v>
+        <v>6.516141473596351</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>11.83297764278275</v>
+        <v>11.83297764278274</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>50.55572130350965</v>
+        <v>50.55572130350964</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16791,7 +16791,7 @@
         <v>2056</v>
       </c>
       <c r="B2056">
-        <v>74.93416159116474</v>
+        <v>74.93416159116472</v>
       </c>
     </row>
     <row r="2057" spans="1:2">
@@ -16911,7 +16911,7 @@
         <v>2071</v>
       </c>
       <c r="B2071">
-        <v>218.4540385482199</v>
+        <v>218.4540385482198</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>73.37297216821575</v>
+        <v>73.37297216821574</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17055,7 +17055,7 @@
         <v>2089</v>
       </c>
       <c r="B2089">
-        <v>8.694948803420257</v>
+        <v>8.694948803420255</v>
       </c>
     </row>
     <row r="2090" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>13.537508110741</v>
+        <v>13.53750811074099</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>89.55421550451301</v>
+        <v>89.554215504513</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>89.88635291262791</v>
+        <v>89.8863529126279</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>5.592879780501516</v>
+        <v>5.592879780501515</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>79.53010161945195</v>
+        <v>79.53010161945194</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>27.15543491449067</v>
+        <v>27.15543491449066</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>4.865858454894316</v>
+        <v>4.865858454894315</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17615,7 +17615,7 @@
         <v>2159</v>
       </c>
       <c r="B2159">
-        <v>30.15536868043593</v>
+        <v>30.15536868043592</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -17855,7 +17855,7 @@
         <v>2189</v>
       </c>
       <c r="B2189">
-        <v>53.4243006299269</v>
+        <v>53.42430062992689</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>79.70506502953278</v>
+        <v>79.70506502953276</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>6.582961670411138</v>
+        <v>6.582961670411137</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>75.83506196400971</v>
+        <v>75.8350619640097</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>86.31158961145229</v>
+        <v>86.31158961145228</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>9.146600581101257</v>
+        <v>9.146600581101255</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>91.48230056076214</v>
+        <v>91.48230056076213</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>8.984151304371274</v>
+        <v>8.984151304371272</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>48.01796056553333</v>
+        <v>48.01796056553332</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>9.527299860322344</v>
+        <v>9.527299860322342</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>235.4093704189334</v>
+        <v>235.4093704189333</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>173.7995077578835</v>
+        <v>173.7995077578834</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>86.0500530165509</v>
+        <v>86.05005301655089</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19487,7 +19487,7 @@
         <v>2393</v>
       </c>
       <c r="B2393">
-        <v>58.18222102128224</v>
+        <v>58.18222102128223</v>
       </c>
     </row>
     <row r="2394" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>30.96368791216779</v>
+        <v>30.96368791216778</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>98.3833615365363</v>
+        <v>98.38336153653628</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>72.72323367550355</v>
+        <v>72.72323367550354</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>60.87525079554134</v>
+        <v>60.87525079554133</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19679,7 +19679,7 @@
         <v>2417</v>
       </c>
       <c r="B2417">
-        <v>70.63422331192548</v>
+        <v>70.63422331192547</v>
       </c>
     </row>
     <row r="2418" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>218.4033665656354</v>
+        <v>218.4033665656353</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>192.5713232333239</v>
+        <v>192.5713232333238</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>57.52251811325555</v>
+        <v>57.52251811325554</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>90.71471527269382</v>
+        <v>90.71471527269381</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>6.620375119206646</v>
+        <v>6.620375119206645</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>12.22419817229178</v>
+        <v>12.22419817229177</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20447,7 +20447,7 @@
         <v>2513</v>
       </c>
       <c r="B2513">
-        <v>3.975450025233417</v>
+        <v>3.975450025233416</v>
       </c>
     </row>
     <row r="2514" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>5.797677822318064</v>
+        <v>5.797677822318063</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20503,7 +20503,7 @@
         <v>2520</v>
       </c>
       <c r="B2520">
-        <v>9.331762863327494</v>
+        <v>9.331762863327492</v>
       </c>
     </row>
     <row r="2521" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>192.7131403089321</v>
+        <v>192.713140308932</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>152.867333774503</v>
+        <v>152.8673337745029</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>65.4011468455885</v>
+        <v>65.40114684558849</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>67.83656717686428</v>
+        <v>67.83656717686426</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>62.52817145359133</v>
+        <v>62.52817145359132</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>61.13754937514325</v>
+        <v>61.13754937514324</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>162.2016317023149</v>
+        <v>162.2016317023148</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>76.12168543982051</v>
+        <v>76.1216854398205</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>51.06147399492753</v>
+        <v>51.06147399492752</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>84.97711994401172</v>
+        <v>84.9771199440117</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>75.94086060896646</v>
+        <v>75.94086060896645</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>22.54811493777223</v>
+        <v>22.54811493777222</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>6.781370763584869</v>
+        <v>6.781370763584868</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>81.76740592859267</v>
+        <v>81.76740592859265</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>92.22300830387482</v>
+        <v>92.22300830387481</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>55.10702661260874</v>
+        <v>55.10702661260873</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>45.99925794413012</v>
+        <v>45.99925794413011</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>33.66360485583543</v>
+        <v>33.66360485583542</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>40.50124525884328</v>
+        <v>40.50124525884327</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>54.61261577038705</v>
+        <v>54.61261577038704</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>5.621249057043934</v>
+        <v>5.621249057043933</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23231,7 +23231,7 @@
         <v>2861</v>
       </c>
       <c r="B2861">
-        <v>49.66062373723017</v>
+        <v>49.66062373723016</v>
       </c>
     </row>
     <row r="2862" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>58.14910399391351</v>
+        <v>58.1491039939135</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>54.60763356272981</v>
+        <v>54.6076335627298</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23655,7 +23655,7 @@
         <v>2914</v>
       </c>
       <c r="B2914">
-        <v>113.6132464592623</v>
+        <v>113.6132464592622</v>
       </c>
     </row>
     <row r="2915" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>48.56216417722358</v>
+        <v>48.56216417722357</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>0.7641944561510043</v>
+        <v>0.7641944561510042</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>0.5450476562815968</v>
+        <v>0.5450476562815967</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24519,7 +24519,7 @@
         <v>3022</v>
       </c>
       <c r="B3022">
-        <v>1.427651604182945</v>
+        <v>1.427651604182944</v>
       </c>
     </row>
     <row r="3023" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>99.8041699319665</v>
+        <v>99.80416993196648</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>65.68864953451528</v>
+        <v>65.68864953451526</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>61.71079632676484</v>
+        <v>61.71079632676483</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24855,7 +24855,7 @@
         <v>3064</v>
       </c>
       <c r="B3064">
-        <v>43.37773750330438</v>
+        <v>43.37773750330437</v>
       </c>
     </row>
     <row r="3065" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>52.70501637974036</v>
+        <v>52.70501637974035</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>56.99000803600789</v>
+        <v>56.99000803600788</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>54.75797900556308</v>
+        <v>54.75797900556307</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>69.73420215219649</v>
+        <v>69.73420215219647</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25679,7 +25679,7 @@
         <v>3167</v>
       </c>
       <c r="B3167">
-        <v>3.534378112048092</v>
+        <v>3.534378112048091</v>
       </c>
     </row>
     <row r="3168" spans="1:2">
@@ -26007,7 +26007,7 @@
         <v>3208</v>
       </c>
       <c r="B3208">
-        <v>67.24778746019363</v>
+        <v>67.24778746019362</v>
       </c>
     </row>
     <row r="3209" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>92.7933245451098</v>
+        <v>92.79332454510978</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>47.62697449285523</v>
+        <v>47.62697449285522</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26207,7 +26207,7 @@
         <v>3233</v>
       </c>
       <c r="B3233">
-        <v>53.59653847934817</v>
+        <v>53.59653847934816</v>
       </c>
     </row>
     <row r="3234" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>81.53763823428217</v>
+        <v>81.53763823428216</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>61.63928699333147</v>
+        <v>61.63928699333146</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>64.97795226576152</v>
+        <v>64.9779522657615</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>89.44059186282401</v>
+        <v>89.44059186282399</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>4.228927166571615</v>
+        <v>4.228927166571614</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>6.798691261969754</v>
+        <v>6.798691261969753</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>90.50033673862345</v>
+        <v>90.50033673862342</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>57.24732440795255</v>
+        <v>57.24732440795254</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>60.2993662045718</v>
+        <v>60.29936620457179</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>105.9009267492385</v>
+        <v>105.9009267492384</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>43.93310712156763</v>
+        <v>43.93310712156762</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>52.69446582234855</v>
+        <v>52.69446582234854</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>155.7306231686724</v>
+        <v>155.7306231686723</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>91.87923597552506</v>
+        <v>91.87923597552503</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>83.02321532925653</v>
+        <v>83.02321532925652</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28391,7 +28391,7 @@
         <v>3506</v>
       </c>
       <c r="B3506">
-        <v>0.5146942888074413</v>
+        <v>0.5146942888074412</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>1.079776281291928</v>
+        <v>1.079776281291927</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>0.7764448255670486</v>
+        <v>0.7764448255670485</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28487,7 +28487,7 @@
         <v>3518</v>
       </c>
       <c r="B3518">
-        <v>0.8176330293405141</v>
+        <v>0.817633029340514</v>
       </c>
     </row>
     <row r="3519" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>2.474879415921143</v>
+        <v>2.474879415921142</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28671,7 +28671,7 @@
         <v>3541</v>
       </c>
       <c r="B3541">
-        <v>2.358805700348931</v>
+        <v>2.35880570034893</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>4.410455367918452</v>
+        <v>4.410455367918451</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>68.10414103516209</v>
+        <v>68.10414103516207</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>48.41181873439031</v>
+        <v>48.4118187343903</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>46.38406021789246</v>
+        <v>46.38406021789245</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>35.89006553654567</v>
+        <v>35.89006553654566</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>50.87801152472553</v>
+        <v>50.87801152472552</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>49.73913746848754</v>
+        <v>49.73913746848753</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>41.76232993820305</v>
+        <v>41.76232993820304</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>89.55782027828855</v>
+        <v>89.55782027828853</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>0.4097865798082261</v>
+        <v>0.409786579808226</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>0.4432523617129651</v>
+        <v>0.443252361712965</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31231,7 +31231,7 @@
         <v>3861</v>
       </c>
       <c r="B3861">
-        <v>0.8073579587250473</v>
+        <v>0.8073579587250472</v>
       </c>
     </row>
     <row r="3862" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>2.250850052547638</v>
+        <v>2.250850052547637</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>85.15853091694309</v>
+        <v>85.15853091694308</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>66.48873347006075</v>
+        <v>66.48873347006074</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>42.89622178678379</v>
+        <v>42.89622178678378</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>64.88123882300327</v>
+        <v>64.88123882300326</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>48.76614162013188</v>
+        <v>48.76614162013187</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>59.43539278259815</v>
+        <v>59.43539278259814</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>44.34604421504147</v>
+        <v>44.34604421504146</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>3.778418365941393</v>
+        <v>3.778418365941394</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32495,7 +32495,7 @@
         <v>4019</v>
       </c>
       <c r="B4019">
-        <v>3.279201158685659</v>
+        <v>3.279201158685658</v>
       </c>
     </row>
     <row r="4020" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>0.9508338164120956</v>
+        <v>0.9508338164120954</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>0.742680111202875</v>
+        <v>0.7426801112028749</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32559,7 +32559,7 @@
         <v>4027</v>
       </c>
       <c r="B4027">
-        <v>0.7983225786031179</v>
+        <v>0.7983225786031178</v>
       </c>
     </row>
     <row r="4028" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>175.8071616011292</v>
+        <v>175.8071616011291</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>44.21328303452788</v>
+        <v>44.21328303452787</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>39.76534388076464</v>
+        <v>39.76534388076463</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>54.93616619706918</v>
+        <v>54.93616619706917</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>45.49488268659394</v>
+        <v>45.49488268659393</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>55.03053507151813</v>
+        <v>55.03053507151812</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>34.36931991693195</v>
+        <v>34.36931991693194</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>0.4767386585904104</v>
+        <v>0.4767386585904103</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>0.4811347241703306</v>
+        <v>0.4811347241703305</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>0.4711439324623653</v>
+        <v>0.4711439324623652</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -33887,7 +33887,7 @@
         <v>4193</v>
       </c>
       <c r="B4193">
-        <v>0.3810568258882544</v>
+        <v>0.3810568258882543</v>
       </c>
     </row>
     <row r="4194" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>3.152828926814887</v>
+        <v>3.152828926814886</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>5.164673685913424</v>
+        <v>5.164673685913423</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>49.9123424523364</v>
+        <v>49.91234245233639</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>62.1128897918082</v>
+        <v>62.11288979180819</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>57.57058176359601</v>
+        <v>57.570581763596</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>49.24765733665247</v>
+        <v>49.24765733665246</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>40.64162628636206</v>
+        <v>40.64162628636205</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>46.850043169364</v>
+        <v>46.85004316936399</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>55.3189169735609</v>
+        <v>55.31891697356089</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>1.4918077852563</v>
+        <v>1.491807785256299</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>62.0340536824083</v>
+        <v>62.03405368240829</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>25.63313601837204</v>
+        <v>25.63313601837203</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>21.19170304166709</v>
+        <v>21.19170304166708</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>24.96185680431823</v>
+        <v>24.96185680431822</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>50.95684763412543</v>
+        <v>50.95684763412542</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>34.83032066074625</v>
+        <v>34.83032066074624</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>39.83890471146864</v>
+        <v>39.83890471146863</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>96.41626872504136</v>
+        <v>96.41626872504132</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>51.64263386459298</v>
+        <v>51.64263386459297</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>37.29885801939076</v>
+        <v>37.29885801939075</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>28.02187013318907</v>
+        <v>28.02187013318906</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>25.93417858928498</v>
+        <v>25.93417858928497</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>83.58151565790639</v>
+        <v>83.58151565790638</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>62.69903186913089</v>
+        <v>62.69903186913088</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>44.32025396363927</v>
+        <v>44.32025396363926</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>36.57790326428385</v>
+        <v>36.57790326428384</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>56.76346412312267</v>
+        <v>56.76346412312266</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>45.23991088295857</v>
+        <v>45.23991088295856</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>32.7767718928462</v>
+        <v>32.77677189284619</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>0.4956710476879333</v>
+        <v>0.4956710476879332</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39327,7 +39327,7 @@
         <v>4873</v>
       </c>
       <c r="B4873">
-        <v>0.7810108723493924</v>
+        <v>0.7810108723493923</v>
       </c>
     </row>
     <row r="4874" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>1.534364630780314</v>
+        <v>1.534364630780313</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39447,7 +39447,7 @@
         <v>4888</v>
       </c>
       <c r="B4888">
-        <v>36.62655305670163</v>
+        <v>36.62655305670162</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>29.84781993246472</v>
+        <v>29.84781993246471</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>36.51694448824229</v>
+        <v>36.51694448824228</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>23.01085359284579</v>
+        <v>23.01085359284578</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>99.94249946221466</v>
+        <v>99.94249946221464</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>37.61742623841564</v>
+        <v>37.61742623841563</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41103,7 +41103,7 @@
         <v>5095</v>
       </c>
       <c r="B5095">
-        <v>82.07806122957369</v>
+        <v>82.07806122957368</v>
       </c>
     </row>
     <row r="5096" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>71.00847502829602</v>
+        <v>71.008475028296</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>53.05142634743807</v>
+        <v>53.05142634743806</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>77.06889103677398</v>
+        <v>77.06889103677396</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>38.75893793400158</v>
+        <v>38.75893793400157</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>28.59330004437096</v>
+        <v>28.59330004437095</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>49.84112618994169</v>
+        <v>49.84112618994168</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>1.229849168059243</v>
+        <v>1.229849168059242</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>2.547141941923871</v>
+        <v>2.54714194192387</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>62.02379619605515</v>
+        <v>62.02379619605514</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>51.76220684836681</v>
+        <v>51.7622068483668</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>68.75915480657019</v>
+        <v>68.75915480657018</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>31.37618539908363</v>
+        <v>31.37618539908362</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>51.26046923017859</v>
+        <v>51.26046923017858</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>28.82084039878763</v>
+        <v>28.82084039878762</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>0.6579122439804674</v>
+        <v>0.6579122439804673</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>70.92436364020021</v>
+        <v>70.9243636402002</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>99.22916455411294</v>
+        <v>99.22916455411293</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>60.41659462003634</v>
+        <v>60.41659462003633</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>47.88458393583855</v>
+        <v>47.88458393583854</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>40.20319201252469</v>
+        <v>40.20319201252468</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>34.13750072535083</v>
+        <v>34.13750072535082</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>31.8017245472199</v>
+        <v>31.80172454721989</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -46039,7 +46039,7 @@
         <v>5712</v>
       </c>
       <c r="B5712">
-        <v>0.6366880393606128</v>
+        <v>0.6366880393606127</v>
       </c>
     </row>
     <row r="5713" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>1.52173326901401</v>
+        <v>1.521733269014009</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>50.45247237658926</v>
+        <v>50.45247237658925</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>43.37011765629919</v>
+        <v>43.37011765629918</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>52.77125043447782</v>
+        <v>52.77125043447781</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>140.9446031261302</v>
+        <v>140.9446031261301</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>42.65678274819747</v>
+        <v>42.65678274819746</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>33.48014238563343</v>
+        <v>33.48014238563342</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>66.36622977590031</v>
+        <v>66.36622977590029</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>40.95257465838175</v>
+        <v>40.95257465838174</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>85.01814988942431</v>
+        <v>85.01814988942429</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>86.70711828522964</v>
+        <v>86.70711828522963</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>78.8504698807963</v>
+        <v>78.85046988079628</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>47.43354760733874</v>
+        <v>47.43354760733873</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>60.01157044460636</v>
+        <v>60.01157044460635</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>37.19188709027937</v>
+        <v>37.19188709027936</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>55.6418812581657</v>
+        <v>55.64188125816569</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>50.03250157818755</v>
+        <v>50.03250157818754</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>43.87185527448741</v>
+        <v>43.8718552744874</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>30.38912214087222</v>
+        <v>30.38912214087221</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>0.482746614882968</v>
+        <v>0.4827466148829679</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>63.60901744417437</v>
+        <v>63.60901744417436</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>47.8819462964906</v>
+        <v>47.88194629649059</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>51.20918179841285</v>
+        <v>51.20918179841284</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>119.679368560863</v>
+        <v>119.6793685608629</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>57.14299111818911</v>
+        <v>57.1429911181891</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>47.54550074410737</v>
+        <v>47.54550074410736</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>26.69384802859905</v>
+        <v>26.69384802859904</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>33.59737080109797</v>
+        <v>33.59737080109796</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>43.04158502195982</v>
+        <v>43.04158502195981</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>2.733019317484443</v>
+        <v>2.733019317484442</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>7.473487328487502</v>
+        <v>7.473487328487501</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>9.114685144991036</v>
+        <v>9.114685144991034</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51463,7 +51463,7 @@
         <v>6390</v>
       </c>
       <c r="B6390">
-        <v>13.37564497608834</v>
+        <v>13.37564497608833</v>
       </c>
     </row>
     <row r="6391" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>88.12587518338921</v>
+        <v>88.1258751833892</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>60.72197464232146</v>
+        <v>60.72197464232145</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>91.64741678394394</v>
+        <v>91.64741678394392</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>87.37678560857081</v>
+        <v>87.3767856085708</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>74.31021334985473</v>
+        <v>74.31021334985472</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>59.77682054263862</v>
+        <v>59.77682054263861</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>69.10820241361586</v>
+        <v>69.10820241361584</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>47.46138935601157</v>
+        <v>47.46138935601156</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>42.33557688982464</v>
+        <v>42.33557688982463</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>41.13310641819714</v>
+        <v>41.13310641819713</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>49.79042490025328</v>
+        <v>49.79042490025327</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>0.7356932976411885</v>
+        <v>0.7356932976411884</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>2.765391944414975</v>
+        <v>2.765391944414974</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>3.357421818904372</v>
+        <v>3.357421818904371</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52807,7 +52807,7 @@
         <v>6558</v>
       </c>
       <c r="B6558">
-        <v>6.834270086063242</v>
+        <v>6.834270086063241</v>
       </c>
     </row>
     <row r="6559" spans="1:2">
@@ -52879,7 +52879,7 @@
         <v>6567</v>
       </c>
       <c r="B6567">
-        <v>69.55660110276771</v>
+        <v>69.5566011027677</v>
       </c>
     </row>
     <row r="6568" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>62.24858168270841</v>
+        <v>62.2485816827084</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>90.96925040048158</v>
+        <v>90.96925040048156</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>50.7326482895495</v>
+        <v>50.73264828954949</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>73.31934016814073</v>
+        <v>73.31934016814071</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>45.16371241290662</v>
+        <v>45.16371241290661</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>48.22835626418831</v>
+        <v>48.2283562641883</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -54135,7 +54135,7 @@
         <v>6724</v>
       </c>
       <c r="B6724">
-        <v>7.831766673250996</v>
+        <v>7.831766673250995</v>
       </c>
     </row>
     <row r="6725" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>2.867591677016959</v>
+        <v>2.867591677016958</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>7.370795236540567</v>
+        <v>7.370795236540566</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>71.56413771759793</v>
+        <v>71.56413771759792</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>57.98879413576575</v>
+        <v>57.98879413576574</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>3.140168257944717</v>
+        <v>3.140168257944716</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -55095,7 +55095,7 @@
         <v>6844</v>
       </c>
       <c r="B6844">
-        <v>7.539982216449375</v>
+        <v>7.539982216449374</v>
       </c>
     </row>
     <row r="6845" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>8.451060946467059</v>
+        <v>8.451060946467058</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>26.04534922638039</v>
+        <v>26.04534922638038</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55327,7 +55327,7 @@
         <v>6873</v>
       </c>
       <c r="B6873">
-        <v>47.35274792197981</v>
+        <v>47.3527479219798</v>
       </c>
     </row>
     <row r="6874" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>41.74958134802128</v>
+        <v>41.74958134802127</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>44.78392165390538</v>
+        <v>44.78392165390537</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>84.37222132021471</v>
+        <v>84.37222132021469</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>90.20755877100076</v>
+        <v>90.20755877100072</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>56.95659793760049</v>
+        <v>56.95659793760048</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>73.91280902142995</v>
+        <v>73.91280902142994</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>7.057707445938652</v>
+        <v>7.057707445938651</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>2.87875475287957</v>
+        <v>2.878754752879569</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>70.79658466734386</v>
+        <v>70.79658466734385</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>62.20227645859991</v>
+        <v>62.2022764585999</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>49.97095666006867</v>
+        <v>49.97095666006866</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -58007,7 +58007,7 @@
         <v>7208</v>
       </c>
       <c r="B7208">
-        <v>28.51502076994452</v>
+        <v>28.51502076994451</v>
       </c>
     </row>
     <row r="7209" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>22.01505681768227</v>
+        <v>22.01505681768226</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>6.998624324544524</v>
+        <v>6.998624324544523</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>3.965837295165325</v>
+        <v>3.965837295165324</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58351,7 +58351,7 @@
         <v>7251</v>
       </c>
       <c r="B7251">
-        <v>5.69709584184949</v>
+        <v>5.697095841849489</v>
       </c>
     </row>
     <row r="7252" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>89.55313114166997</v>
+        <v>89.55313114166995</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>86.31498923550076</v>
+        <v>86.31498923550075</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58903,7 +58903,7 @@
         <v>7320</v>
       </c>
       <c r="B7320">
-        <v>2.344087672787358</v>
+        <v>2.344087672787357</v>
       </c>
     </row>
     <row r="7321" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>94.60250481955325</v>
+        <v>94.60250481955322</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>57.62526881941022</v>
+        <v>57.62526881941021</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>5.411703264401072</v>
+        <v>5.411703264401071</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>46.67792254835819</v>
+        <v>46.67792254835818</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>47.09891909539522</v>
+        <v>47.0989190953952</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>80.03476994802679</v>
+        <v>80.03476994802678</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>64.49174741262235</v>
+        <v>64.49174741262233</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>87.65696152153106</v>
+        <v>87.65696152153104</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>58.08023229982809</v>
+        <v>58.08023229982808</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60095,7 +60095,7 @@
         <v>7469</v>
       </c>
       <c r="B7469">
-        <v>3.265163055933781</v>
+        <v>3.26516305593378</v>
       </c>
     </row>
     <row r="7470" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>4.148039559901084</v>
+        <v>4.148039559901083</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>78.63330424114824</v>
+        <v>78.63330424114822</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60575,7 +60575,7 @@
         <v>7529</v>
       </c>
       <c r="B7529">
-        <v>34.10998135482053</v>
+        <v>34.10998135482052</v>
       </c>
     </row>
     <row r="7530" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>56.9082998304291</v>
+        <v>56.90829983042909</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>96.32266183529292</v>
+        <v>96.32266183529291</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>99.76976339202766</v>
+        <v>99.76976339202764</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>48.59293663628302</v>
+        <v>48.59293663628301</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>54.59503150806737</v>
+        <v>54.59503150806736</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60951,7 +60951,7 @@
         <v>7576</v>
       </c>
       <c r="B7576">
-        <v>19.72095534124899</v>
+        <v>19.72095534124898</v>
       </c>
     </row>
     <row r="7577" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>69.62652785259232</v>
+        <v>69.62652785259229</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>83.71732477722206</v>
+        <v>83.71732477722205</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>6.93458830259702</v>
+        <v>6.934588302597019</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>19.46970553980462</v>
+        <v>19.46970553980461</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>59.42378716946718</v>
+        <v>59.42378716946716</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>79.88709145164535</v>
+        <v>79.88709145164533</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>126.1395627731789</v>
+        <v>126.1395627731788</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>33.58500320326646</v>
+        <v>33.58500320326645</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>53.85139305456808</v>
+        <v>53.85139305456807</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>7.621637669241199</v>
+        <v>7.621637669241197</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>60.88585996714088</v>
+        <v>60.88585996714087</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>101.5352145367925</v>
+        <v>101.5352145367924</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>98.35062550151783</v>
+        <v>98.35062550151781</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>59.66422264958493</v>
+        <v>59.66422264958492</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>14.10525411896692</v>
+        <v>14.10525411896691</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>32.36802571522522</v>
+        <v>32.36802571522521</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62295,7 +62295,7 @@
         <v>7744</v>
       </c>
       <c r="B7744">
-        <v>94.23582019740094</v>
+        <v>94.23582019740093</v>
       </c>
     </row>
     <row r="7745" spans="1:2">
@@ -62495,7 +62495,7 @@
         <v>7769</v>
       </c>
       <c r="B7769">
-        <v>74.28178545910458</v>
+        <v>74.28178545910457</v>
       </c>
     </row>
     <row r="7770" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>6.111703440243695</v>
+        <v>6.111703440243694</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>9.27054032335114</v>
+        <v>9.270540323351138</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>5.677401468051447</v>
+        <v>5.677401468051446</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>9.207647278454417</v>
+        <v>9.207647278454411</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>7.83545936833813</v>
+        <v>7.835459368338129</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>7.489664849821608</v>
+        <v>7.489664849821607</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63583,7 +63583,7 @@
         <v>7905</v>
       </c>
       <c r="B7905">
-        <v>221.0464277278027</v>
+        <v>221.0464277278026</v>
       </c>
     </row>
     <row r="7906" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>175.2165941511227</v>
+        <v>175.2165941511226</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>95.59361831951897</v>
+        <v>95.59361831951894</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>5.772737476927984</v>
+        <v>5.772737476927983</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63735,7 +63735,7 @@
         <v>7924</v>
       </c>
       <c r="B7924">
-        <v>15.71596375531851</v>
+        <v>15.7159637553185</v>
       </c>
     </row>
     <row r="7925" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>83.26499893615214</v>
+        <v>83.26499893615212</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>89.23397678056776</v>
+        <v>89.23397678056774</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>35.23722049082366</v>
+        <v>35.23722049082365</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>54.16260519052256</v>
+        <v>54.16260519052255</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>61.97388619817113</v>
+        <v>61.97388619817112</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>92.71091296903823</v>
+        <v>92.71091296903822</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64759,7 +64759,7 @@
         <v>8052</v>
       </c>
       <c r="B8052">
-        <v>50.3291187764167</v>
+        <v>50.32911877641669</v>
       </c>
     </row>
     <row r="8053" spans="1:2">
@@ -64855,7 +64855,7 @@
         <v>8064</v>
       </c>
       <c r="B8064">
-        <v>58.91173345071806</v>
+        <v>58.91173345071805</v>
       </c>
     </row>
     <row r="8065" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>67.63511014488847</v>
+        <v>67.63511014488846</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>6.246313899011238</v>
+        <v>6.246313899011237</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>86.88927072788883</v>
+        <v>86.88927072788881</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>8.161301610542587</v>
+        <v>8.161301610542585</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>12.40645905123527</v>
+        <v>12.40645905123526</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>51.08878821573077</v>
+        <v>51.08878821573076</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>58.15666522671097</v>
+        <v>58.15666522671096</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>88.20500436382778</v>
+        <v>88.20500436382777</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65591,7 +65591,7 @@
         <v>8156</v>
       </c>
       <c r="B8156">
-        <v>4.528035468629383</v>
+        <v>4.528035468629382</v>
       </c>
     </row>
     <row r="8157" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>73.23944900300164</v>
+        <v>73.23944900300162</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65959,7 +65959,7 @@
         <v>8202</v>
       </c>
       <c r="B8202">
-        <v>61.2501765753008</v>
+        <v>61.25017657530079</v>
       </c>
     </row>
     <row r="8203" spans="1:2">
@@ -65967,7 +65967,7 @@
         <v>8203</v>
       </c>
       <c r="B8203">
-        <v>65.02103370844473</v>
+        <v>65.02103370844472</v>
       </c>
     </row>
     <row r="8204" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>99.50327389657289</v>
+        <v>99.50327389657288</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>106.3221284460026</v>
+        <v>106.3221284460025</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>55.9890825176678</v>
+        <v>55.98908251766778</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66383,7 +66383,7 @@
         <v>8255</v>
       </c>
       <c r="B8255">
-        <v>22.28248414046075</v>
+        <v>22.28248414046074</v>
       </c>
     </row>
     <row r="8256" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>90.74299955863502</v>
+        <v>90.74299955863501</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>18.09634534553369</v>
+        <v>18.09634534553368</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>55.00439313486955</v>
+        <v>55.00439313486953</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>177.8465550378619</v>
+        <v>177.8465550378618</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>58.60052131476358</v>
+        <v>58.60052131476357</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>75.48270265422718</v>
+        <v>75.48270265422717</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66879,7 +66879,7 @@
         <v>8317</v>
       </c>
       <c r="B8317">
-        <v>176.514781623977</v>
+        <v>176.5147816239769</v>
       </c>
     </row>
     <row r="8318" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>86.45516511329248</v>
+        <v>86.45516511329247</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>143.7091129267188</v>
+        <v>143.7091129267187</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>26.58230519128454</v>
+        <v>26.58230519128453</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>69.97727527166221</v>
+        <v>69.97727527166219</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>23.72278175996193</v>
+        <v>23.72278175996192</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>46.4535180540552</v>
+        <v>46.45351805405519</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>55.26059583686729</v>
+        <v>55.26059583686728</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>65.59304976170395</v>
+        <v>65.59304976170394</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>88.14521787194087</v>
+        <v>88.14521787194086</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>51.8969609119433</v>
+        <v>51.89696091194329</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>43.54464145982202</v>
+        <v>43.54464145982201</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>50.55991221936252</v>
+        <v>50.5599122193625</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>57.49479359299819</v>
+        <v>57.49479359299818</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>60.77507911452689</v>
+        <v>60.77507911452688</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>59.36385414206092</v>
+        <v>59.36385414206091</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>130.6200035051297</v>
+        <v>130.6200035051296</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67727,7 +67727,7 @@
         <v>8423</v>
       </c>
       <c r="B8423">
-        <v>14.16286309303658</v>
+        <v>14.16286309303657</v>
       </c>
     </row>
     <row r="8424" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>8.325972365745624</v>
+        <v>8.325972365745622</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>22.64595084260855</v>
+        <v>22.64595084260854</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>49.80238219863066</v>
+        <v>49.80238219863065</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>3.355135864802814</v>
+        <v>3.355135864802813</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>28.66097014719787</v>
+        <v>28.66097014719786</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>185.6685331384216</v>
+        <v>185.6685331384215</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>7.979181405697653</v>
+        <v>7.979181405697652</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>27.76039215249542</v>
+        <v>27.76039215249541</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>92.20085213335202</v>
+        <v>92.200852133352</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>89.63325676363998</v>
+        <v>89.63325676363996</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>64.44711269343422</v>
+        <v>64.44711269343421</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>62.34488482601253</v>
+        <v>62.34488482601252</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>67.11397122394087</v>
+        <v>67.11397122394085</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68839,7 +68839,7 @@
         <v>8562</v>
       </c>
       <c r="B8562">
-        <v>77.86323077996168</v>
+        <v>77.86323077996167</v>
       </c>
     </row>
     <row r="8563" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>102.4977565411991</v>
+        <v>102.497756541199</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>190.8684046560783</v>
+        <v>190.8684046560782</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>51.16580728469097</v>
+        <v>51.16580728469096</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>78.43987735563175</v>
+        <v>78.43987735563174</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>71.25553391388753</v>
+        <v>71.25553391388752</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>50.77104059561414</v>
+        <v>50.77104059561413</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69407,7 +69407,7 @@
         <v>8633</v>
       </c>
       <c r="B8633">
-        <v>139.3228359194899</v>
+        <v>139.3228359194898</v>
       </c>
     </row>
     <row r="8634" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>59.87180486626876</v>
+        <v>59.87180486626875</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>60.99690458368967</v>
+        <v>60.99690458368966</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>15.91828827756876</v>
+        <v>15.91828827756875</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>29.66509013985937</v>
+        <v>29.66509013985936</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>49.22538393771421</v>
+        <v>49.2253839377142</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>46.43569933490459</v>
+        <v>46.43569933490458</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>12.53936676726819</v>
+        <v>12.53936676726818</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>50.97572140901522</v>
+        <v>50.97572140901521</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>68.93027898604456</v>
+        <v>68.93027898604454</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>0.6522120122785043</v>
+        <v>0.6522120122785042</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>9.15134833192757</v>
+        <v>9.151348331927569</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
